--- a/Testdata/Templates/UtilityOutcome/QOL_ECON_Testing/OldImportLogic_QOL/QOL_OldImportExpectedResult_mainpulated_data.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL_ECON_Testing/OldImportLogic_QOL/QOL_OldImportExpectedResult_mainpulated_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL_ECON_Testing\OldImportLogic_QOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AEB91A-0A7D-4484-AC65-714F41379B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC0BB44-74BB-40D6-91EF-4B056C386791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedReportData" sheetId="3" r:id="rId1"/>
@@ -52,13 +52,7 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Sub-population</t>
-  </si>
-  <si>
     <t>Inclusion Criteria</t>
-  </si>
-  <si>
-    <t>Line of Therapy</t>
   </si>
   <si>
     <t>Original</t>
@@ -286,6 +280,12 @@
 Post-progression: 0.776
 Decrement in month before death: -0.079
 *EQ-5D utility score data collected in the CheckMate 067 trial.</t>
+  </si>
+  <si>
+    <t>Population filter 1</t>
+  </si>
+  <si>
+    <t>Population filter 2</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,10 +1002,10 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.59765625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -1021,9 +1021,9 @@
     <col min="15" max="15" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="62.4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1041,34 +1041,34 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="14.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1076,40 +1076,40 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1117,40 +1117,40 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1158,40 +1158,40 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1199,40 +1199,40 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="K5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1240,40 +1240,40 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1281,40 +1281,40 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1322,40 +1322,40 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="K8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1363,40 +1363,40 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1404,40 +1404,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1445,40 +1445,40 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1486,34 +1486,34 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="I12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="K12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1533,6 +1533,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b34b9c2d2d2ae622ceb9becde627447d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="754865f092840b442e748268bc313caa" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -1743,20 +1757,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1767,6 +1767,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1785,16 +1795,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
